--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -339,25 +339,25 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="B1">
-        <v>1663</v>
+        <v>1670</v>
       </c>
       <c r="C1">
         <f>B1-A1</f>
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E1">
         <f>C1/C2</f>
-        <v>4.03</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -365,87 +365,87 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C14" si="0">B2-A2</f>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <f>A1-A2*E1</f>
-        <v>-3173.0000000000005</v>
+        <v>-4494</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="B4">
-        <v>2323</v>
+        <v>2328</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E4">
         <f>C4/C5</f>
-        <v>1.9533333333333334</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="B5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <f>A4-A5*E4</f>
-        <v>-607</v>
+        <v>-948</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2396</v>
+        <v>2401</v>
       </c>
       <c r="B7">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E7">
         <f>C7/C8</f>
-        <v>0.88</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8">
         <f>A7-A8*E7</f>
-        <v>1076</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="B10">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -453,55 +453,55 @@
       </c>
       <c r="E10">
         <f>C10/C11</f>
-        <v>0.2195</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="B11">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E11">
         <f>A10-A11*E10</f>
-        <v>2471</v>
+        <v>1331.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="B13">
         <v>4009</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E13">
         <f>C13/C14</f>
-        <v>0.19533333333333333</v>
+        <v>0.12446808510638298</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="B14">
         <v>7000</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="E14">
         <f>A13-A14*E13</f>
-        <v>2641.6666666666665</v>
+        <v>3137.7234042553191</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,15 +349,15 @@
         <v>866</v>
       </c>
       <c r="B1">
-        <v>1670</v>
+        <v>2064</v>
       </c>
       <c r="C1">
         <f>B1-A1</f>
-        <v>804</v>
+        <v>1198</v>
       </c>
       <c r="E1">
         <f>C1/C2</f>
-        <v>5.36</v>
+        <v>7.9866666666666664</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -373,7 +373,7 @@
       </c>
       <c r="E2">
         <f>A1-A2*E1</f>
-        <v>-4494</v>
+        <v>-7120.6666666666661</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -381,15 +381,15 @@
         <v>1743</v>
       </c>
       <c r="B4">
-        <v>2328</v>
+        <v>2722</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>979</v>
       </c>
       <c r="E4">
         <f>C4/C5</f>
-        <v>2.34</v>
+        <v>3.9159999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -405,7 +405,7 @@
       </c>
       <c r="E5">
         <f>A4-A5*E4</f>
-        <v>-948</v>
+        <v>-2760.3999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -413,15 +413,15 @@
         <v>2401</v>
       </c>
       <c r="B7">
-        <v>2839</v>
+        <v>3233</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>832</v>
       </c>
       <c r="E7">
         <f>C7/C8</f>
-        <v>1.095</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
       </c>
       <c r="E8">
         <f>A7-A8*E7</f>
-        <v>868</v>
+        <v>-511</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,15 +445,15 @@
         <v>2912</v>
       </c>
       <c r="B10">
-        <v>3351</v>
+        <v>3745</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>833</v>
       </c>
       <c r="E10">
         <f>C10/C11</f>
-        <v>0.878</v>
+        <v>1.6659999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
       </c>
       <c r="E11">
         <f>A10-A11*E10</f>
-        <v>1331.6</v>
+        <v>-86.799999999999727</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,15 +477,15 @@
         <v>3424</v>
       </c>
       <c r="B13">
-        <v>4009</v>
+        <v>4403</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>585</v>
+        <v>979</v>
       </c>
       <c r="E13">
         <f>C13/C14</f>
-        <v>0.12446808510638298</v>
+        <v>0.20829787234042554</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
       </c>
       <c r="E14">
         <f>A13-A14*E13</f>
-        <v>3137.7234042553191</v>
+        <v>2944.9148936170213</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -339,25 +339,25 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>866</v>
+        <v>750</v>
       </c>
       <c r="B1">
         <v>2064</v>
       </c>
       <c r="C1">
         <f>B1-A1</f>
-        <v>1198</v>
+        <v>1314</v>
       </c>
       <c r="E1">
         <f>C1/C2</f>
-        <v>7.9866666666666664</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -373,7 +373,7 @@
       </c>
       <c r="E2">
         <f>A1-A2*E1</f>
-        <v>-7120.6666666666661</v>
+        <v>-8010</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -339,41 +339,31 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="B1">
         <v>2064</v>
       </c>
       <c r="C1">
         <f>B1-A1</f>
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="E1">
-        <f>C1/C2</f>
-        <v>8.76</v>
+        <f>(C1+200)/C1</f>
+        <v>1.1540832049306626</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>1150</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C14" si="0">B2-A2</f>
-        <v>150</v>
-      </c>
       <c r="E2">
-        <f>A1-A2*E1</f>
-        <v>-8010</v>
+        <f>A1*(1-E1)</f>
+        <v>-118.02773497688757</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -384,28 +374,18 @@
         <v>2722</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C13" si="0">B4-A4</f>
         <v>979</v>
       </c>
       <c r="E4">
-        <f>C4/C5</f>
-        <v>3.9159999999999999</v>
+        <f>(C4+200)/C4</f>
+        <v>1.2042900919305413</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1150</v>
-      </c>
-      <c r="B5">
-        <v>1400</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
       <c r="E5">
-        <f>A4-A5*E4</f>
-        <v>-2760.3999999999996</v>
+        <f>A4*(1-E4)</f>
+        <v>-356.07763023493339</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -420,24 +400,14 @@
         <v>832</v>
       </c>
       <c r="E7">
-        <f>C7/C8</f>
-        <v>2.08</v>
+        <f>(C7+200)/C7</f>
+        <v>1.2403846153846154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1400</v>
-      </c>
-      <c r="B8">
-        <v>1800</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
       <c r="E8">
-        <f>A7-A8*E7</f>
-        <v>-511</v>
+        <f>A7*(1-E7)</f>
+        <v>-577.16346153846166</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -452,24 +422,14 @@
         <v>833</v>
       </c>
       <c r="E10">
-        <f>C10/C11</f>
-        <v>1.6659999999999999</v>
+        <f>(C10+200)/C10</f>
+        <v>1.2400960384153661</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1800</v>
-      </c>
-      <c r="B11">
-        <v>2300</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
       <c r="E11">
-        <f>A10-A11*E10</f>
-        <v>-86.799999999999727</v>
+        <f>A10*(1-E10)</f>
+        <v>-699.15966386554601</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,24 +444,14 @@
         <v>979</v>
       </c>
       <c r="E13">
-        <f>C13/C14</f>
-        <v>0.20829787234042554</v>
+        <f>(C13+200)/C13</f>
+        <v>1.2042900919305413</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2300</v>
-      </c>
-      <c r="B14">
-        <v>7000</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4700</v>
-      </c>
       <c r="E14">
-        <f>A13-A14*E13</f>
-        <v>2944.9148936170213</v>
+        <f>A13*(1-E13)</f>
+        <v>-699.48927477017332</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -34,12 +34,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +66,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,37 +350,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>766</v>
+        <v>866</v>
       </c>
       <c r="B1">
         <v>2064</v>
       </c>
       <c r="C1">
         <f>B1-A1</f>
-        <v>1298</v>
-      </c>
-      <c r="E1">
-        <f>(C1+200)/C1</f>
-        <v>1.1540832049306626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <f>A1*(1-E1)</f>
-        <v>-118.02773497688757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+      <c r="E1" s="1">
+        <f>(C1+H2-H1)/C1</f>
+        <v>1.1669449081803005</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:F12" si="0">A1*E1+E2</f>
+        <v>766</v>
+      </c>
+      <c r="G1">
+        <f>B1*E1+E2</f>
+        <v>2164</v>
+      </c>
+      <c r="H1" s="2">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>A1*(1-E1)+H1</f>
+        <v>-244.57429048414022</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1743</v>
       </c>
@@ -374,21 +407,29 @@
         <v>2722</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C13" si="0">B4-A4</f>
+        <f t="shared" ref="C4:C13" si="1">B4-A4</f>
         <v>979</v>
       </c>
-      <c r="E4">
-        <f>(C4+200)/C4</f>
+      <c r="E4" s="1">
+        <f>(C4++H2-H1)/C4</f>
         <v>1.2042900919305413</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <f>A4*(1-E4)</f>
-        <v>-356.07763023493339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1643.0000000000002</v>
+      </c>
+      <c r="G4">
+        <f>B4*E4+E5</f>
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f>A4*(1-E4)+H1</f>
+        <v>-456.07763023493339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2401</v>
       </c>
@@ -396,21 +437,29 @@
         <v>3233</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>832</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(C7++H2-H1)/C7</f>
+        <v>1.2403846153846154</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>832</v>
-      </c>
-      <c r="E7">
-        <f>(C7+200)/C7</f>
-        <v>1.2403846153846154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <f>A7*(1-E7)</f>
-        <v>-577.16346153846166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+      <c r="G7">
+        <f>B7*E7+E8</f>
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f>A7*(1-E7)+H1</f>
+        <v>-677.16346153846166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2912</v>
       </c>
@@ -418,21 +467,29 @@
         <v>3745</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>833</v>
+      </c>
+      <c r="E10" s="1">
+        <f>(C10++H2-H1)/C10</f>
+        <v>1.2400960384153661</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>833</v>
-      </c>
-      <c r="E10">
-        <f>(C10+200)/C10</f>
-        <v>1.2400960384153661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <f>A10*(1-E10)</f>
-        <v>-699.15966386554601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2812</v>
+      </c>
+      <c r="G10">
+        <f>B10*E10+E11</f>
+        <v>3844.9999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f>A10*(1-E10)+H1</f>
+        <v>-799.15966386554601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3424</v>
       </c>
@@ -440,18 +497,26 @@
         <v>4403</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>979</v>
       </c>
-      <c r="E13">
-        <f>(C13+200)/C13</f>
+      <c r="E13" s="1">
+        <f>(C13++H2-H1)/C13</f>
         <v>1.2042900919305413</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f>A13*(1-E13)</f>
-        <v>-699.48927477017332</v>
+      <c r="F13">
+        <f>A13*E13+E14</f>
+        <v>3324</v>
+      </c>
+      <c r="G13">
+        <f>B13*E13+E14</f>
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f>A13*(1-E13)+H1</f>
+        <v>-799.48927477017332</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
         <v>1.1669449081803005</v>
       </c>
       <c r="F1">
-        <f t="shared" ref="F1:F12" si="0">A1*E1+E2</f>
+        <f t="shared" ref="F1:F10" si="0">A1*E1+E2</f>
         <v>766</v>
       </c>
       <c r="G1">

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,15 +368,15 @@
         <v>866</v>
       </c>
       <c r="B1">
-        <v>2064</v>
+        <v>2264</v>
       </c>
       <c r="C1">
         <f>B1-A1</f>
-        <v>1198</v>
+        <v>1398</v>
       </c>
       <c r="E1" s="1">
         <f>(C1+H2-H1)/C1</f>
-        <v>1.1669449081803005</v>
+        <v>1.1430615164520743</v>
       </c>
       <c r="F1">
         <f t="shared" ref="F1:F10" si="0">A1*E1+E2</f>
@@ -384,7 +384,7 @@
       </c>
       <c r="G1">
         <f>B1*E1+E2</f>
-        <v>2164</v>
+        <v>2364</v>
       </c>
       <c r="H1" s="2">
         <v>-100</v>
@@ -393,7 +393,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="1">
         <f>A1*(1-E1)+H1</f>
-        <v>-244.57429048414022</v>
+        <v>-223.89127324749637</v>
       </c>
       <c r="H2" s="2">
         <v>100</v>
@@ -401,122 +401,122 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1743</v>
+        <v>2137</v>
       </c>
       <c r="B4">
-        <v>2722</v>
+        <v>2922</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C13" si="1">B4-A4</f>
-        <v>979</v>
+        <v>785</v>
       </c>
       <c r="E4" s="1">
         <f>(C4++H2-H1)/C4</f>
-        <v>1.2042900919305413</v>
+        <v>1.2547770700636942</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1643.0000000000002</v>
+        <v>2037</v>
       </c>
       <c r="G4">
         <f>B4*E4+E5</f>
-        <v>2822</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <f>A4*(1-E4)+H1</f>
-        <v>-456.07763023493339</v>
+        <v>-644.45859872611447</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2401</v>
+        <v>2795</v>
       </c>
       <c r="B7">
-        <v>3233</v>
+        <v>3433</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>832</v>
+        <v>638</v>
       </c>
       <c r="E7" s="1">
         <f>(C7++H2-H1)/C7</f>
-        <v>1.2403846153846154</v>
+        <v>1.3134796238244515</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2301</v>
+        <v>2695</v>
       </c>
       <c r="G7">
         <f>B7*E7+E8</f>
-        <v>3333</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <f>A7*(1-E7)+H1</f>
-        <v>-677.16346153846166</v>
+        <v>-976.17554858934193</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2912</v>
+        <v>3307</v>
       </c>
       <c r="B10">
-        <v>3745</v>
+        <v>3945</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>833</v>
+        <v>638</v>
       </c>
       <c r="E10" s="1">
         <f>(C10++H2-H1)/C10</f>
-        <v>1.2400960384153661</v>
+        <v>1.3134796238244515</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2812</v>
+        <v>3206.9999999999995</v>
       </c>
       <c r="G10">
         <f>B10*E10+E11</f>
-        <v>3844.9999999999995</v>
+        <v>4045.0000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <f>A10*(1-E10)+H1</f>
-        <v>-799.15966386554601</v>
+        <v>-1136.6771159874611</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3424</v>
+        <v>3818</v>
       </c>
       <c r="B13">
-        <v>4403</v>
+        <v>4603</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>979</v>
+        <v>785</v>
       </c>
       <c r="E13" s="1">
         <f>(C13++H2-H1)/C13</f>
-        <v>1.2042900919305413</v>
+        <v>1.2547770700636942</v>
       </c>
       <c r="F13">
         <f>A13*E13+E14</f>
-        <v>3324</v>
+        <v>3717.9999999999995</v>
       </c>
       <c r="G13">
         <f>B13*E13+E14</f>
-        <v>4503</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <f>A13*(1-E13)+H1</f>
-        <v>-799.48927477017332</v>
+        <v>-1072.7388535031846</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +519,126 @@
         <v>-1072.7388535031846</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="1">
+        <f>(B19-A19)/(B18-A18)</f>
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>866</v>
+      </c>
+      <c r="B19">
+        <v>2064</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19-D18*B18</f>
+        <v>-5124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1200</v>
+      </c>
+      <c r="B21">
+        <v>1500</v>
+      </c>
+      <c r="D21" s="1">
+        <f>(B22-A22)/(B21-A21)</f>
+        <v>3.2633333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1743</v>
+      </c>
+      <c r="B22">
+        <v>2722</v>
+      </c>
+      <c r="D22" s="1">
+        <f>B22-D21*B21</f>
+        <v>-2173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1500</v>
+      </c>
+      <c r="B24">
+        <v>1900</v>
+      </c>
+      <c r="D24" s="1">
+        <f>(B25-A25)/(B24-A24)</f>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2401</v>
+      </c>
+      <c r="B25">
+        <v>3233</v>
+      </c>
+      <c r="D25" s="1">
+        <f>B25-D24*B24</f>
+        <v>-719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1900</v>
+      </c>
+      <c r="B27">
+        <v>2400</v>
+      </c>
+      <c r="D27" s="1">
+        <f>(B28-A28)/(B27-A27)</f>
+        <v>1.6659999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2912</v>
+      </c>
+      <c r="B28">
+        <v>3745</v>
+      </c>
+      <c r="D28" s="1">
+        <f>B28-D27*B27</f>
+        <v>-253.39999999999964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2400</v>
+      </c>
+      <c r="B30">
+        <v>3100</v>
+      </c>
+      <c r="D30" s="1">
+        <f>(B31-A31)/(B30-A30)</f>
+        <v>1.3985714285714286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3424</v>
+      </c>
+      <c r="B31">
+        <v>4403</v>
+      </c>
+      <c r="D31" s="1">
+        <f>B31-D30*B30</f>
+        <v>67.428571428571558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>-1072.7388535031846</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -527,116 +527,149 @@
         <v>1200</v>
       </c>
       <c r="D18" s="1">
-        <f>(B19-A19)/(B18-A18)</f>
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(B20-A19)/(B18-A18)</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>866</v>
       </c>
       <c r="B19">
-        <v>2064</v>
+        <v>1670</v>
       </c>
       <c r="D19" s="1">
-        <f>B19-D18*B18</f>
-        <v>-5124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <f>A19-D18*A18</f>
+        <v>-3153.9999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>B19+G18</f>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1200</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1500</v>
       </c>
-      <c r="D21" s="1">
-        <f>(B22-A22)/(B21-A21)</f>
+      <c r="D22" s="1">
+        <f>(B24-A23)/(B22-A22)</f>
         <v>3.2633333333333332</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1743</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>2722</v>
       </c>
-      <c r="D22" s="1">
-        <f>B22-D21*B21</f>
+      <c r="D23" s="1">
+        <f>A23-D22*A22</f>
         <v>-2173</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B23+G18</f>
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>1500</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>1900</v>
       </c>
-      <c r="D24" s="1">
-        <f>(B25-A25)/(B24-A24)</f>
+      <c r="D26" s="1">
+        <f>(B28-A27)/(B26-A26)</f>
         <v>2.08</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2401</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>3233</v>
       </c>
-      <c r="D25" s="1">
-        <f>B25-D24*B24</f>
+      <c r="D27" s="1">
+        <f>A27-D26*A26</f>
         <v>-719</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B27+G18</f>
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>1900</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <v>2400</v>
       </c>
-      <c r="D27" s="1">
-        <f>(B28-A28)/(B27-A27)</f>
+      <c r="D30" s="1">
+        <f>(B32-A31)/(B30-A30)</f>
         <v>1.6659999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2912</v>
       </c>
-      <c r="B28">
+      <c r="B31">
         <v>3745</v>
       </c>
-      <c r="D28" s="1">
-        <f>B28-D27*B27</f>
+      <c r="D31" s="1">
+        <f>A31-D30*A30</f>
         <v>-253.39999999999964</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>B31+G18</f>
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2400</v>
       </c>
-      <c r="B30">
+      <c r="B34">
         <v>3100</v>
       </c>
-      <c r="D30" s="1">
-        <f>(B31-A31)/(B30-A30)</f>
+      <c r="D34" s="1">
+        <f>(B36-A35)/(B34-A34)</f>
         <v>1.3985714285714286</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>3424</v>
       </c>
-      <c r="B31">
+      <c r="B35">
         <v>4403</v>
       </c>
-      <c r="D31" s="1">
-        <f>B31-D30*B30</f>
+      <c r="D35" s="1">
+        <f>A35-D34*A34</f>
         <v>67.428571428571558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>B35+G18</f>
+        <v>4403</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,11 +587,11 @@
         <v>1500</v>
       </c>
       <c r="B26">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="D26" s="1">
         <f>(B28-A27)/(B26-A26)</f>
-        <v>2.08</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
       </c>
       <c r="D27" s="1">
         <f>A27-D26*A26</f>
-        <v>-719</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,14 +614,14 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="B30">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="D30" s="1">
         <f>(B32-A31)/(B30-A30)</f>
-        <v>1.6659999999999999</v>
+        <v>0.20824999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
       </c>
       <c r="D31" s="1">
         <f>A31-D30*A30</f>
-        <v>-253.39999999999964</v>
+        <v>2391.375</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,14 +644,14 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="B34">
-        <v>3100</v>
+        <v>13000</v>
       </c>
       <c r="D34" s="1">
         <f>(B36-A35)/(B34-A34)</f>
-        <v>1.3985714285714286</v>
+        <v>0.15061538461538462</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
       </c>
       <c r="D35" s="1">
         <f>A35-D34*A34</f>
-        <v>67.428571428571558</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">

--- a/Documents/botPowerFactors.xlsx
+++ b/Documents/botPowerFactors.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="D18" s="1">
         <f>(B20-A19)/(B18-A18)</f>
-        <v>4.0199999999999996</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -539,17 +539,17 @@
         <v>866</v>
       </c>
       <c r="B19">
-        <v>1670</v>
+        <v>1597</v>
       </c>
       <c r="D19" s="1">
         <f>A19-D18*A18</f>
-        <v>-3153.9999999999995</v>
+        <v>-2789</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>B19+G18</f>
-        <v>1670</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,25 +561,25 @@
       </c>
       <c r="D22" s="1">
         <f>(B24-A23)/(B22-A22)</f>
-        <v>3.2633333333333332</v>
+        <v>2.4366666666666665</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1743</v>
+        <v>1670</v>
       </c>
       <c r="B23">
-        <v>2722</v>
+        <v>2401</v>
       </c>
       <c r="D23" s="1">
         <f>A23-D22*A22</f>
-        <v>-2173</v>
+        <v>-1254</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B23+G18</f>
-        <v>2722</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,89 +587,89 @@
         <v>1500</v>
       </c>
       <c r="B26">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="D26" s="1">
         <f>(B28-A27)/(B26-A26)</f>
-        <v>0.83199999999999996</v>
+        <v>1.4624999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2401</v>
+        <v>2474</v>
       </c>
       <c r="B27">
-        <v>3233</v>
+        <v>3059</v>
       </c>
       <c r="D27" s="1">
         <f>A27-D26*A26</f>
-        <v>1153</v>
+        <v>280.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <f>B27+G18</f>
-        <v>3233</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="B30">
-        <v>6500</v>
+        <v>2400</v>
       </c>
       <c r="D30" s="1">
         <f>(B32-A31)/(B30-A30)</f>
-        <v>0.20824999999999999</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2912</v>
+        <v>3132</v>
       </c>
       <c r="B31">
-        <v>3745</v>
+        <v>3862</v>
       </c>
       <c r="D31" s="1">
         <f>A31-D30*A30</f>
-        <v>2391.375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31+G18</f>
-        <v>3745</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6500</v>
+        <v>2400</v>
       </c>
       <c r="B34">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="D34" s="1">
         <f>(B36-A35)/(B34-A34)</f>
-        <v>0.15061538461538462</v>
+        <v>0.28076923076923077</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3424</v>
+        <v>3936</v>
       </c>
       <c r="B35">
-        <v>4403</v>
+        <v>4666</v>
       </c>
       <c r="D35" s="1">
         <f>A35-D34*A34</f>
-        <v>2445</v>
+        <v>3262.1538461538462</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35+G18</f>
-        <v>4403</v>
+        <v>4666</v>
       </c>
     </row>
   </sheetData>
